--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0835155378357824</v>
+        <v>0.004220333333333334</v>
       </c>
       <c r="H2">
-        <v>0.0835155378357824</v>
+        <v>0.012661</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03890646438542014</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05724607538161036</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N2">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O2">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P2">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q2">
-        <v>0.2940752898358429</v>
+        <v>0.0149980116935</v>
       </c>
       <c r="R2">
-        <v>0.2940752898358429</v>
+        <v>0.08998807016099999</v>
       </c>
       <c r="S2">
-        <v>0.06396690753453857</v>
+        <v>0.002396240909286447</v>
       </c>
       <c r="T2">
-        <v>0.06396690753453857</v>
+        <v>0.002728286131502103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.0835155378357824</v>
+        <v>0.004220333333333334</v>
       </c>
       <c r="H3">
-        <v>0.0835155378357824</v>
+        <v>0.012661</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03890646438542014</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05724607538161036</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N3">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P3">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q3">
-        <v>1.018477266104643</v>
+        <v>0.05623690530944445</v>
       </c>
       <c r="R3">
-        <v>1.018477266104643</v>
+        <v>0.506132147785</v>
       </c>
       <c r="S3">
-        <v>0.2215379644556751</v>
+        <v>0.008985002536873708</v>
       </c>
       <c r="T3">
-        <v>0.2215379644556751</v>
+        <v>0.01534507093038702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.0835155378357824</v>
+        <v>0.004220333333333334</v>
       </c>
       <c r="H4">
-        <v>0.0835155378357824</v>
+        <v>0.012661</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.03890646438542014</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05724607538161036</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N4">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O4">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P4">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q4">
-        <v>0.5596495328053939</v>
+        <v>0.02961805033366667</v>
       </c>
       <c r="R4">
-        <v>0.5596495328053939</v>
+        <v>0.266562453003</v>
       </c>
       <c r="S4">
-        <v>0.1217343012284163</v>
+        <v>0.004732092847586977</v>
       </c>
       <c r="T4">
-        <v>0.1217343012284163</v>
+        <v>0.008081722859553591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.0835155378357824</v>
+        <v>0.004220333333333334</v>
       </c>
       <c r="H5">
-        <v>0.0835155378357824</v>
+        <v>0.012661</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.03890646438542014</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05724607538161036</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N5">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O5">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P5">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q5">
-        <v>0.8977282801897849</v>
+        <v>0.04634848424188889</v>
       </c>
       <c r="R5">
-        <v>0.8977282801897849</v>
+        <v>0.417136358177</v>
       </c>
       <c r="S5">
-        <v>0.1952727885504958</v>
+        <v>0.007405123845313825</v>
       </c>
       <c r="T5">
-        <v>0.1952727885504958</v>
+        <v>0.01264686906746036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.0835155378357824</v>
+        <v>0.004220333333333334</v>
       </c>
       <c r="H6">
-        <v>0.0835155378357824</v>
+        <v>0.012661</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.03890646438542014</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.05724607538161036</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N6">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O6">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P6">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q6">
-        <v>0.1838126628825449</v>
+        <v>0.010156882098</v>
       </c>
       <c r="R6">
-        <v>0.1838126628825449</v>
+        <v>0.09141193888200001</v>
       </c>
       <c r="S6">
-        <v>0.03998271196756623</v>
+        <v>0.001622770863992244</v>
       </c>
       <c r="T6">
-        <v>0.03998271196756623</v>
+        <v>0.002771455423583084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.004220333333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.012661</v>
+      </c>
+      <c r="I7">
+        <v>0.03890646438542014</v>
+      </c>
+      <c r="J7">
+        <v>0.05724607538161036</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>20.4145605</v>
+      </c>
+      <c r="N7">
+        <v>40.829121</v>
+      </c>
+      <c r="O7">
+        <v>0.3538032458052225</v>
+      </c>
+      <c r="P7">
+        <v>0.2737772129294103</v>
+      </c>
+      <c r="Q7">
+        <v>0.08615625016350001</v>
+      </c>
+      <c r="R7">
+        <v>0.516937500981</v>
+      </c>
+      <c r="S7">
+        <v>0.01376523338236694</v>
+      </c>
+      <c r="T7">
+        <v>0.01567267096912421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1042535</v>
+      </c>
+      <c r="H8">
+        <v>0.208507</v>
+      </c>
+      <c r="I8">
+        <v>0.9610935356145798</v>
+      </c>
+      <c r="J8">
+        <v>0.9427539246183896</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.5537505</v>
+      </c>
+      <c r="N8">
+        <v>7.107500999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.06158978841018558</v>
+      </c>
+      <c r="P8">
+        <v>0.04765892007993501</v>
+      </c>
+      <c r="Q8">
+        <v>0.37049092775175</v>
+      </c>
+      <c r="R8">
+        <v>1.481963711007</v>
+      </c>
+      <c r="S8">
+        <v>0.05919354750089913</v>
+      </c>
+      <c r="T8">
+        <v>0.04493063394843291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.0835155378357824</v>
-      </c>
-      <c r="H7">
-        <v>0.0835155378357824</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>19.6796972294029</v>
-      </c>
-      <c r="N7">
-        <v>19.6796972294029</v>
-      </c>
-      <c r="O7">
-        <v>0.3575053262633079</v>
-      </c>
-      <c r="P7">
-        <v>0.3575053262633079</v>
-      </c>
-      <c r="Q7">
-        <v>1.64356049855894</v>
-      </c>
-      <c r="R7">
-        <v>1.64356049855894</v>
-      </c>
-      <c r="S7">
-        <v>0.3575053262633079</v>
-      </c>
-      <c r="T7">
-        <v>0.3575053262633079</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1042535</v>
+      </c>
+      <c r="H9">
+        <v>0.208507</v>
+      </c>
+      <c r="I9">
+        <v>0.9610935356145798</v>
+      </c>
+      <c r="J9">
+        <v>0.9427539246183896</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.32522833333333</v>
+      </c>
+      <c r="N9">
+        <v>39.975685</v>
+      </c>
+      <c r="O9">
+        <v>0.2309385516983846</v>
+      </c>
+      <c r="P9">
+        <v>0.2680545492087383</v>
+      </c>
+      <c r="Q9">
+        <v>1.389201692049167</v>
+      </c>
+      <c r="R9">
+        <v>8.335210152295</v>
+      </c>
+      <c r="S9">
+        <v>0.2219535491615108</v>
+      </c>
+      <c r="T9">
+        <v>0.2527094782783513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1042535</v>
+      </c>
+      <c r="H10">
+        <v>0.208507</v>
+      </c>
+      <c r="I10">
+        <v>0.9610935356145798</v>
+      </c>
+      <c r="J10">
+        <v>0.9427539246183896</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.017941</v>
+      </c>
+      <c r="N10">
+        <v>21.053823</v>
+      </c>
+      <c r="O10">
+        <v>0.1216274190507089</v>
+      </c>
+      <c r="P10">
+        <v>0.1411751426744924</v>
+      </c>
+      <c r="Q10">
+        <v>0.7316449120434999</v>
+      </c>
+      <c r="R10">
+        <v>4.389869472260999</v>
+      </c>
+      <c r="S10">
+        <v>0.1168953262031219</v>
+      </c>
+      <c r="T10">
+        <v>0.1330934198149388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1042535</v>
+      </c>
+      <c r="H11">
+        <v>0.208507</v>
+      </c>
+      <c r="I11">
+        <v>0.9610935356145798</v>
+      </c>
+      <c r="J11">
+        <v>0.9427539246183896</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.98218566666667</v>
+      </c>
+      <c r="N11">
+        <v>32.946557</v>
+      </c>
+      <c r="O11">
+        <v>0.1903314516568828</v>
+      </c>
+      <c r="P11">
+        <v>0.2209211545622046</v>
+      </c>
+      <c r="Q11">
+        <v>1.144931293399833</v>
+      </c>
+      <c r="R11">
+        <v>6.869587760399</v>
+      </c>
+      <c r="S11">
+        <v>0.1829263278115689</v>
+      </c>
+      <c r="T11">
+        <v>0.2082742854947442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1042535</v>
+      </c>
+      <c r="H12">
+        <v>0.208507</v>
+      </c>
+      <c r="I12">
+        <v>0.9610935356145798</v>
+      </c>
+      <c r="J12">
+        <v>0.9427539246183896</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.406654</v>
+      </c>
+      <c r="N12">
+        <v>7.219962000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.04170954337861558</v>
+      </c>
+      <c r="P12">
+        <v>0.04841302054521945</v>
+      </c>
+      <c r="Q12">
+        <v>0.250902102789</v>
+      </c>
+      <c r="R12">
+        <v>1.505412616734</v>
+      </c>
+      <c r="S12">
+        <v>0.04008677251462333</v>
+      </c>
+      <c r="T12">
+        <v>0.04564156512163637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1042535</v>
+      </c>
+      <c r="H13">
+        <v>0.208507</v>
+      </c>
+      <c r="I13">
+        <v>0.9610935356145798</v>
+      </c>
+      <c r="J13">
+        <v>0.9427539246183896</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.4145605</v>
+      </c>
+      <c r="N13">
+        <v>40.829121</v>
+      </c>
+      <c r="O13">
+        <v>0.3538032458052225</v>
+      </c>
+      <c r="P13">
+        <v>0.2737772129294103</v>
+      </c>
+      <c r="Q13">
+        <v>2.12828938308675</v>
+      </c>
+      <c r="R13">
+        <v>8.513157532347</v>
+      </c>
+      <c r="S13">
+        <v>0.3400380124228556</v>
+      </c>
+      <c r="T13">
+        <v>0.258104541960286</v>
       </c>
     </row>
   </sheetData>
